--- a/regions/11/soflis meurneoba/2. mravaltslovani kulturebis tsarmoeba.xlsx
+++ b/regions/11/soflis meurneoba/2. mravaltslovani kulturebis tsarmoeba.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\მცხეთა-მთიანეთი\GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\მცხეთა-მთიანეთი\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="24">
   <si>
     <r>
       <t xml:space="preserve">ხილის წარმოება ცალკეული სახეობების მიხედვით მცხეთა-მთიანეთის რეგიონში </t>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -227,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -257,15 +257,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -315,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -623,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -636,7 +627,7 @@
     <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" customHeight="1">
+    <row r="1" spans="1:20" ht="30" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
@@ -656,8 +647,10 @@
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
-    </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1">
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="3">
         <v>2006</v>
@@ -707,8 +700,14 @@
       <c r="Q2" s="3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1">
+      <c r="R2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -760,8 +759,14 @@
       <c r="Q3" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1">
+      <c r="R3" s="11">
+        <v>3.2</v>
+      </c>
+      <c r="S3" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -813,8 +818,14 @@
       <c r="Q4" s="11">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1">
+      <c r="R4" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="S4" s="11">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
@@ -866,8 +877,14 @@
       <c r="Q5" s="11">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1">
+      <c r="R5" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
@@ -919,8 +936,14 @@
       <c r="Q6" s="11">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1">
+      <c r="R6" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
@@ -972,8 +995,14 @@
       <c r="Q7" s="11">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1">
+      <c r="R7" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S7" s="11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
@@ -1025,8 +1054,12 @@
       <c r="Q8" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1">
+      <c r="R8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -1078,8 +1111,12 @@
       <c r="Q9" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1">
+      <c r="R9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1098,7 +1135,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:19" ht="30" customHeight="1">
+    <row r="11" spans="1:20" ht="30" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>0</v>
       </c>
@@ -1118,8 +1155,10 @@
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1">
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="3">
         <v>2006</v>
@@ -1169,8 +1208,14 @@
       <c r="Q12" s="3">
         <v>2021</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1">
+      <c r="R12" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S12" s="3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1222,9 +1267,15 @@
       <c r="Q13" s="5">
         <v>3.6</v>
       </c>
-      <c r="S13" s="12"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1">
+      <c r="R13" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="S13" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1276,8 +1327,14 @@
       <c r="Q14" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1">
+      <c r="R14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
@@ -1329,8 +1386,14 @@
       <c r="Q15" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1">
+      <c r="R15" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1382,8 +1445,14 @@
       <c r="Q16" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1">
+      <c r="R16" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1435,8 +1504,14 @@
       <c r="Q17" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1">
+      <c r="R17" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -1488,8 +1563,14 @@
       <c r="Q18" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1">
+      <c r="R18" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1541,8 +1622,14 @@
       <c r="Q19" s="6">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1">
+      <c r="R19" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -1594,8 +1681,14 @@
       <c r="Q20" s="5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1">
+      <c r="R20" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
@@ -1647,8 +1740,12 @@
       <c r="Q21" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1">
+      <c r="R21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1797,12 @@
       <c r="Q22" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1">
+      <c r="R22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>21</v>
       </c>
@@ -1753,8 +1854,12 @@
       <c r="Q23" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="R23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="13" t="s">
         <v>3</v>
       </c>
@@ -1775,7 +1880,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
     </row>
-    <row r="25" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:19" s="7" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>2</v>
       </c>
@@ -1796,7 +1901,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="1:17" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="26" spans="1:19" s="8" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A26" s="16" t="s">
         <v>23</v>
       </c>
@@ -1819,11 +1924,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A11:Q11"/>
     <mergeCell ref="A24:Q24"/>
     <mergeCell ref="A25:Q25"/>
     <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A11:S11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
